--- a/data/trans_orig/IP05A02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP05A02-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{434C109B-55B8-4E9D-B182-F58F178DFB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AF92117-4CEC-4AAA-8C00-9C7A22CAD0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{869DBCEB-93BF-434A-806C-CADE5DBCF380}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2DDAF771-9C55-4FFB-8C09-6D52A4B9C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="579">
   <si>
     <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nada</t>
@@ -77,1708 +77,1705 @@
     <t>74,89%</t>
   </si>
   <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
   </si>
   <si>
     <t>86,68%</t>
   </si>
   <si>
-    <t>69,46%</t>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2016 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
   </si>
   <si>
     <t>96,58%</t>
   </si>
   <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>Algo</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
   </si>
   <si>
     <t>3,77%</t>
   </si>
   <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2015 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
   </si>
   <si>
     <t>4,94%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
+    <t>9,17%</t>
   </si>
   <si>
     <t>2,94%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
+    <t>4,22%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>3,52%</t>
+    <t>3,43%</t>
   </si>
   <si>
     <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
 </sst>
 </file>
@@ -2190,7 +2187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A581D7DA-6AB4-41DF-A208-9F60C918C073}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879149ED-F14B-4366-AFC1-7CC5C5EBC9FD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2741,13 +2738,13 @@
         <v>150790</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M12" s="7">
         <v>504</v>
@@ -2756,13 +2753,13 @@
         <v>324325</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,13 +2774,13 @@
         <v>33540</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>57</v>
@@ -2792,13 +2789,13 @@
         <v>35801</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>108</v>
@@ -2807,13 +2804,13 @@
         <v>69341</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2825,13 @@
         <v>5068</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -2843,13 +2840,13 @@
         <v>8045</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>21</v>
@@ -2858,13 +2855,13 @@
         <v>13113</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,7 +2917,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2932,13 +2929,13 @@
         <v>115688</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>166</v>
@@ -2947,13 +2944,13 @@
         <v>99893</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>345</v>
@@ -2962,13 +2959,13 @@
         <v>215581</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,13 +2980,13 @@
         <v>26873</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -2998,13 +2995,13 @@
         <v>29231</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>90</v>
@@ -3013,13 +3010,13 @@
         <v>56104</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3031,13 @@
         <v>7096</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -3049,13 +3046,13 @@
         <v>7580</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -3064,13 +3061,13 @@
         <v>14675</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,7 +3123,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3138,13 +3135,13 @@
         <v>151725</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>192</v>
@@ -3153,13 +3150,13 @@
         <v>147072</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>415</v>
@@ -3168,13 +3165,13 @@
         <v>298797</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3186,13 @@
         <v>40736</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H21" s="7">
         <v>63</v>
@@ -3204,13 +3201,13 @@
         <v>48187</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>123</v>
@@ -3219,13 +3216,13 @@
         <v>88923</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,13 +3237,13 @@
         <v>14668</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -3255,13 +3252,13 @@
         <v>14056</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -3270,13 +3267,13 @@
         <v>28724</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3341,13 @@
         <v>560554</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H24" s="7">
         <v>759</v>
@@ -3359,13 +3356,13 @@
         <v>507869</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>1600</v>
@@ -3374,13 +3371,13 @@
         <v>1068423</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3392,13 @@
         <v>128652</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>206</v>
@@ -3410,13 +3407,13 @@
         <v>138287</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>400</v>
@@ -3425,13 +3422,13 @@
         <v>266938</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3443,13 @@
         <v>31454</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>50</v>
@@ -3461,7 +3458,7 @@
         <v>33226</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>170</v>
@@ -3482,7 +3479,7 @@
         <v>173</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,7 +3535,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3559,7 +3556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EAEEEC-2566-42F7-A0CD-C0D0F6BFCA27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7E996B-4AB1-4123-92B4-A2B27DB2F5F2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3576,7 +3573,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3683,13 +3680,13 @@
         <v>22121</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -3698,13 +3695,13 @@
         <v>19938</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>47</v>
@@ -3713,13 +3710,13 @@
         <v>42059</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3731,13 @@
         <v>3334</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3749,13 +3746,13 @@
         <v>2435</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -3764,13 +3761,13 @@
         <v>5769</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,7 +3788,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3806,7 +3803,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3821,7 +3818,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,13 +3886,13 @@
         <v>117323</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H8" s="7">
         <v>148</v>
@@ -3904,13 +3901,13 @@
         <v>106620</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M8" s="7">
         <v>314</v>
@@ -3919,13 +3916,13 @@
         <v>223943</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +3937,13 @@
         <v>11254</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -3955,13 +3952,13 @@
         <v>9714</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -3970,13 +3967,13 @@
         <v>20967</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +3988,13 @@
         <v>652</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4006,13 +4003,13 @@
         <v>650</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4021,13 +4018,13 @@
         <v>1303</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,13 +4092,13 @@
         <v>196433</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H12" s="7">
         <v>269</v>
@@ -4110,13 +4107,13 @@
         <v>174415</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M12" s="7">
         <v>553</v>
@@ -4125,13 +4122,13 @@
         <v>370848</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4143,13 @@
         <v>20716</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -4161,13 +4158,13 @@
         <v>25216</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -4176,13 +4173,13 @@
         <v>45932</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,13 +4194,13 @@
         <v>6687</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -4212,13 +4209,13 @@
         <v>6727</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -4227,13 +4224,13 @@
         <v>13414</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,7 +4286,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4301,13 +4298,13 @@
         <v>139119</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H16" s="7">
         <v>203</v>
@@ -4316,13 +4313,13 @@
         <v>130406</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M16" s="7">
         <v>416</v>
@@ -4331,13 +4328,13 @@
         <v>269525</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,13 +4349,13 @@
         <v>24779</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -4367,13 +4364,13 @@
         <v>18578</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -4382,13 +4379,13 @@
         <v>43356</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,13 +4400,13 @@
         <v>2694</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -4418,13 +4415,13 @@
         <v>6392</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -4433,13 +4430,13 @@
         <v>9086</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,7 +4492,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4507,13 +4504,13 @@
         <v>159273</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H20" s="7">
         <v>212</v>
@@ -4522,13 +4519,13 @@
         <v>161283</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M20" s="7">
         <v>429</v>
@@ -4537,13 +4534,13 @@
         <v>320556</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,13 +4555,13 @@
         <v>36310</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H21" s="7">
         <v>46</v>
@@ -4573,13 +4570,13 @@
         <v>36669</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M21" s="7">
         <v>95</v>
@@ -4588,13 +4585,13 @@
         <v>72979</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,10 +4606,10 @@
         <v>12812</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>294</v>
@@ -4749,7 +4746,7 @@
         <v>308</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>309</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4761,13 @@
         <v>96392</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H25" s="7">
         <v>132</v>
@@ -4833,10 +4830,10 @@
         <v>321</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>217</v>
+        <v>322</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M26" s="7">
         <v>68</v>
@@ -4845,13 +4842,13 @@
         <v>48195</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>324</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,7 +4904,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4928,7 +4925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9272BF8D-02F3-4B6D-8E7A-7441EFCF4ACA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0C1066-B66E-4090-B18F-1F04A6764996}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4945,7 +4942,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5052,13 +5049,13 @@
         <v>24467</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -5067,13 +5064,13 @@
         <v>21483</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M4" s="7">
         <v>52</v>
@@ -5082,13 +5079,13 @@
         <v>45950</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,13 +5100,13 @@
         <v>1107</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -5118,13 +5115,13 @@
         <v>1044</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5133,13 +5130,13 @@
         <v>2151</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,7 +5157,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5175,7 +5172,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5190,7 +5187,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,13 +5255,13 @@
         <v>113970</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H8" s="7">
         <v>149</v>
@@ -5273,13 +5270,13 @@
         <v>101608</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M8" s="7">
         <v>303</v>
@@ -5288,13 +5285,13 @@
         <v>215577</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,13 +5306,13 @@
         <v>5467</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>348</v>
+        <v>140</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -5324,13 +5321,13 @@
         <v>7618</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -5339,13 +5336,13 @@
         <v>13085</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5357,13 @@
         <v>3065</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5375,13 +5372,13 @@
         <v>1954</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -5390,13 +5387,13 @@
         <v>5020</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,13 +5461,13 @@
         <v>202256</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H12" s="7">
         <v>301</v>
@@ -5479,10 +5476,10 @@
         <v>187375</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>370</v>
+        <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>371</v>
@@ -5518,10 +5515,10 @@
         <v>375</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -5530,13 +5527,13 @@
         <v>18112</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -5545,13 +5542,13 @@
         <v>33907</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +5563,13 @@
         <v>6308</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -5581,13 +5578,13 @@
         <v>1760</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -5596,13 +5593,13 @@
         <v>8068</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,7 +5655,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5670,13 +5667,13 @@
         <v>142431</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H16" s="7">
         <v>211</v>
@@ -5685,13 +5682,13 @@
         <v>126602</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>423</v>
@@ -5700,13 +5697,13 @@
         <v>269034</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5718,13 @@
         <v>18628</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -5736,13 +5733,13 @@
         <v>21852</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -5751,13 +5748,13 @@
         <v>40480</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,10 +5772,10 @@
         <v>62</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>409</v>
+        <v>353</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -5787,13 +5784,13 @@
         <v>6972</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -5802,13 +5799,13 @@
         <v>12586</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,7 +5861,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5876,13 +5873,13 @@
         <v>171363</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H20" s="7">
         <v>240</v>
@@ -5891,13 +5888,13 @@
         <v>176009</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="M20" s="7">
         <v>482</v>
@@ -5906,13 +5903,13 @@
         <v>347372</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,13 +5924,13 @@
         <v>33555</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -5942,13 +5939,13 @@
         <v>20313</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="M21" s="7">
         <v>73</v>
@@ -5957,13 +5954,13 @@
         <v>53868</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>286</v>
+        <v>428</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>429</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>337</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,13 +5975,13 @@
         <v>818</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -5993,13 +5990,13 @@
         <v>9931</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>362</v>
+        <v>433</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -6008,13 +6005,13 @@
         <v>10749</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>241</v>
+        <v>437</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,13 +6079,13 @@
         <v>654487</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H24" s="7">
         <v>924</v>
@@ -6097,13 +6094,13 @@
         <v>613077</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="M24" s="7">
         <v>1860</v>
@@ -6112,13 +6109,13 @@
         <v>1267563</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,13 +6130,13 @@
         <v>74552</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>445</v>
+        <v>357</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H25" s="7">
         <v>104</v>
@@ -6148,13 +6145,13 @@
         <v>68939</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M25" s="7">
         <v>211</v>
@@ -6163,13 +6160,13 @@
         <v>143491</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>451</v>
+        <v>212</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,13 +6181,13 @@
         <v>15805</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H26" s="7">
         <v>31</v>
@@ -6199,13 +6196,13 @@
         <v>20617</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>458</v>
+        <v>86</v>
       </c>
       <c r="M26" s="7">
         <v>53</v>
@@ -6214,13 +6211,13 @@
         <v>36422</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>459</v>
+        <v>387</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>389</v>
+        <v>220</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>460</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6276,7 +6273,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6297,7 +6294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E89861-D54F-433B-AFF6-A3827BEE628B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA49CBD6-AB07-4C96-B78A-C909E8A93591}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6314,7 +6311,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6421,10 +6418,10 @@
         <v>12698</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -6436,10 +6433,10 @@
         <v>16787</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -6451,10 +6448,10 @@
         <v>29485</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -6478,7 +6475,7 @@
         <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6493,7 +6490,7 @@
         <v>32</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6508,7 +6505,7 @@
         <v>32</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,7 +6526,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6544,7 +6541,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6559,7 +6556,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,13 +6624,13 @@
         <v>109000</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="H8" s="7">
         <v>157</v>
@@ -6642,13 +6639,13 @@
         <v>96877</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="M8" s="7">
         <v>300</v>
@@ -6657,13 +6654,13 @@
         <v>205876</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6678,13 +6675,13 @@
         <v>4658</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -6693,13 +6690,13 @@
         <v>5847</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
@@ -6708,13 +6705,13 @@
         <v>10505</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>362</v>
+        <v>433</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>482</v>
+        <v>218</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,13 +6726,13 @@
         <v>938</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -6744,13 +6741,13 @@
         <v>1171</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>321</v>
+        <v>484</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -6759,13 +6756,13 @@
         <v>2109</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6833,13 +6830,13 @@
         <v>228301</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="H12" s="7">
         <v>258</v>
@@ -6848,13 +6845,13 @@
         <v>178439</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="M12" s="7">
         <v>574</v>
@@ -6863,13 +6860,13 @@
         <v>406740</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6884,13 +6881,13 @@
         <v>13670</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -6899,13 +6896,13 @@
         <v>8169</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -6914,13 +6911,13 @@
         <v>21839</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6935,13 +6932,13 @@
         <v>8215</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>355</v>
+        <v>504</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>506</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -6950,13 +6947,13 @@
         <v>5745</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -6965,13 +6962,13 @@
         <v>13959</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7027,7 +7024,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7039,13 +7036,13 @@
         <v>159490</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="H16" s="7">
         <v>200</v>
@@ -7054,13 +7051,13 @@
         <v>143271</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="M16" s="7">
         <v>405</v>
@@ -7069,13 +7066,13 @@
         <v>302762</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>519</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7090,13 +7087,13 @@
         <v>11391</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -7105,13 +7102,13 @@
         <v>21606</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="M17" s="7">
         <v>38</v>
@@ -7120,13 +7117,13 @@
         <v>32997</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>528</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7141,13 +7138,13 @@
         <v>2326</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -7156,13 +7153,13 @@
         <v>3858</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -7171,13 +7168,13 @@
         <v>6185</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>358</v>
+        <v>533</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>119</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,7 +7230,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7245,13 +7242,13 @@
         <v>146851</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="H20" s="7">
         <v>213</v>
@@ -7260,13 +7257,13 @@
         <v>151510</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="M20" s="7">
         <v>414</v>
@@ -7275,13 +7272,13 @@
         <v>298360</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7296,13 +7293,13 @@
         <v>17413</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -7311,10 +7308,10 @@
         <v>14440</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>549</v>
@@ -7350,7 +7347,7 @@
         <v>553</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>296</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>554</v>
@@ -7362,13 +7359,13 @@
         <v>4823</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>556</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -7377,13 +7374,13 @@
         <v>14672</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>557</v>
+        <v>434</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7451,13 +7448,13 @@
         <v>656340</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="H24" s="7">
         <v>856</v>
@@ -7466,13 +7463,13 @@
         <v>586883</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>563</v>
+        <v>334</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="M24" s="7">
         <v>1740</v>
@@ -7481,13 +7478,13 @@
         <v>1243224</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7502,13 +7499,13 @@
         <v>47132</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>409</v>
+        <v>565</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H25" s="7">
         <v>62</v>
@@ -7517,13 +7514,13 @@
         <v>50061</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="M25" s="7">
         <v>125</v>
@@ -7532,13 +7529,13 @@
         <v>97193</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>235</v>
+        <v>572</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7553,13 +7550,13 @@
         <v>21329</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>576</v>
       </c>
       <c r="H26" s="7">
         <v>24</v>
@@ -7568,13 +7565,13 @@
         <v>15596</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M26" s="7">
         <v>53</v>
@@ -7583,13 +7580,13 @@
         <v>36925</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>197</v>
+        <v>534</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7645,7 +7642,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
